--- a/Plan/Data_추출파일/006.플레이어테이블.xlsx
+++ b/Plan/Data_추출파일/006.플레이어테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D5C534-DAAC-4B71-AB6B-F17A92B77ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C73512E8-DEFF-4522-BA6B-367BB17FF1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D23F212F-9EE6-4958-9839-98B33A3643DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DAA64C64-CDA8-4F44-BDD7-98356B4F1691}"/>
   </bookViews>
   <sheets>
     <sheet name="006.플레이어테이블" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52A675A-813A-43F9-9810-DB8E55792E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50332EA-04AF-4AE9-A60B-96C2408B11C9}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
